--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Création des maquettes</t>
+  </si>
+  <si>
+    <t>Maquette fini</t>
   </si>
 </sst>
 </file>
@@ -126,18 +129,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -424,7 +427,7 @@
   <dimension ref="D2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:K6"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,27 +458,27 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>43894</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -489,7 +492,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="4"/>
@@ -498,7 +501,7 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>43894</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -519,14 +522,16 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>43896</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -538,7 +543,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>43896</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -557,7 +562,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>43896</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -576,7 +581,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -591,7 +596,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -606,7 +611,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -621,7 +626,7 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -636,7 +641,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -651,7 +656,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -666,7 +671,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -681,7 +686,7 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -696,7 +701,7 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -711,7 +716,7 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -726,7 +731,7 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -741,7 +746,7 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -756,7 +761,7 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -771,7 +776,7 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -786,7 +791,7 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -801,7 +806,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -816,7 +821,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -832,6 +837,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="L23:P23"/>
     <mergeCell ref="L24:P24"/>
@@ -848,60 +907,6 @@
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="L13:P13"/>
     <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Maquette fini</t>
+  </si>
+  <si>
+    <t>Initiation du MCD</t>
   </si>
 </sst>
 </file>
@@ -131,17 +134,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,7 +430,7 @@
   <dimension ref="D2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,420 +441,443 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
         <v>43894</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D5" s="3">
         <v>43894</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6" s="3">
         <v>43896</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7" s="3">
         <v>43896</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
         <v>43896</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -868,45 +894,24 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="L6:P6"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Initiation du MCD</t>
+  </si>
+  <si>
+    <t>MCD Fini</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>Initiation du Code</t>
+  </si>
+  <si>
+    <t>Clion</t>
   </si>
 </sst>
 </file>
@@ -134,17 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -430,7 +442,7 @@
   <dimension ref="D2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:K13"/>
+      <selection activeCell="L9" sqref="L9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,44 +453,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
@@ -495,7 +507,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="5"/>
@@ -518,7 +530,9 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -539,7 +553,9 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -560,7 +576,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -574,27 +592,39 @@
         <v>5</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3">
+        <v>43896</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -842,42 +872,24 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -894,24 +906,42 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Clion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planification du Projet </t>
+  </si>
+  <si>
+    <t>GitHub - https://github.com/TCamoes15/BatailleNavale-TiagoSantos</t>
   </si>
 </sst>
 </file>
@@ -146,17 +152,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -442,7 +448,7 @@
   <dimension ref="D2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:P9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,44 +459,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
@@ -507,7 +513,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="5"/>
@@ -631,15 +637,23 @@
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="3">
+        <v>43901</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -872,24 +886,42 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
@@ -906,42 +938,24 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>GitHub - https://github.com/TCamoes15/BatailleNavale-TiagoSantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 0.1 </t>
   </si>
 </sst>
 </file>
@@ -152,17 +155,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,7 +451,7 @@
   <dimension ref="D2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,44 +462,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
@@ -513,7 +516,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="5"/>
@@ -660,15 +663,23 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="3">
+        <v>43903</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -886,6 +897,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="L17:P17"/>
@@ -902,60 +967,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L6:P6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1"/>
